--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2447,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4267,8 +4267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
